--- a/Gini Index varying tax wealth.xlsx
+++ b/Gini Index varying tax wealth.xlsx
@@ -1,34 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhawk\OneDrive\Projects\Modelling-Complex-Software-Systems\Wealth_Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c03bb7544101ae3/Projects/Modelling-Complex-Software-Systems/Wealth_Distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6D9FF1F5-6482-4755-8B49-994F00FB01F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:40009_{6D9FF1F5-6482-4755-8B49-994F00FB01F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB1E727E-5B1E-44BD-982A-240605CA54D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gini Index varying tax wealth" sheetId="1" r:id="rId1"/>
+    <sheet name="Gini Index varying tax" sheetId="3" r:id="rId1"/>
+    <sheet name="Gini Index varying tax wealth" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Gini Index varying tax</t>
+  </si>
+  <si>
+    <t>Income Tax 1</t>
+  </si>
+  <si>
+    <t>Income Tax 2</t>
+  </si>
+  <si>
+    <t>Wealth Tax 1</t>
+  </si>
+  <si>
+    <t>Wealth Tax 2</t>
+  </si>
+  <si>
+    <t>Income Tax 3</t>
+  </si>
+  <si>
+    <t>Wealth Tax 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -505,12 +538,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -550,6 +585,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -602,13 +638,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gini Index varying Wealth</a:t>
+              <a:t>Gini Index varying Income Tax</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Tax</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -652,7 +683,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gini Index varying tax wealth'!$A$1</c:f>
+              <c:f>'Gini Index varying tax'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,7 +706,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Gini Index varying tax wealth'!$B$2:$B$101</c:f>
+              <c:f>'Gini Index varying tax'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="100"/>
@@ -984,7 +1015,2050 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Gini Index varying tax'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.509308258332831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49308701145822198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50049545604622103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50693793712644497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50896775565411601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50325370507299505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50296568184118495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50482102386798899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50526617683786801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49894456816347599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49506064088294599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49663691812988098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.501501680868637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49062828955502602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50276181333205405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49892725407591998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48998298514786298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49776388855641801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49797304016251398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49930381652007799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49906828094724198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49702454734935803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50257523420058103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50001919447509102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49382851368571001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49111398029162101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49058378489761301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50127152601971403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49819185086941897</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49819771279171099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48756905259498401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48534365458277801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48743804595200302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48658993417208402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49082419352822299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48086970847120097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48174921425991801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48684371705642698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48114931992718601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47740588627195202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48791276782927601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.479290867089749</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47944954817455698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.486442478200453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47985965417757898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47402916825591901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47734215427158799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47177204298915298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46755213849181299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47105699365355103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.469732168913574</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.465720987788944</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46395079066591399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4740969337507</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45367542176735998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.47989089462592199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46970537451338601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46184082774917301</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.458474469063826</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45559153455187501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43833944386379797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.440441733131542</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44545093420975101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.437869567372971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43831547895454598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42635438660833702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.43361767657643002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42146245912082603</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39535587439540099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.41420543987575298</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.38989465712014498</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.386522517018553</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38945150375871901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37054615896027598</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38053520388328299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.354370893581956</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.34518107147080401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.325921255762263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.32073210712184202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31362180076790702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29558235879631101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30727864357789503</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.29655865528436798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.27373182191533502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.26855065545004397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.26395618140139998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.220241073342275</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23272005211577099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.210522112932371</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.2039709383735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19585234042229799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.202311404246177</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18434376870480601</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.184823334288924</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16349949306328601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.16415664428402499</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16622194601676199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14453373301663799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.13688968697071699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13689382446002399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F95-4BA6-9BF8-C07492173B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="152762880"/>
+        <c:axId val="152742080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152762880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Income</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Tax %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152742080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152742080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Gini Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152762880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gini Index varying</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with Tax</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income Tax 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.509308258332831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49308701145822198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50049545604622103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50693793712644497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50896775565411601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50325370507299505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50296568184118495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50482102386798899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50526617683786801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49894456816347599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49506064088294599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49663691812988098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.501501680868637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49062828955502602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50276181333205405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49892725407591998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48998298514786298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49776388855641801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49797304016251398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49930381652007799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49906828094724198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49702454734935803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50257523420058103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50001919447509102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49382851368571001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49111398029162101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49058378489761301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50127152601971403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49819185086941897</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49819771279171099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48756905259498401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48534365458277801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48743804595200302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48658993417208402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49082419352822299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48086970847120097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48174921425991801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48684371705642698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48114931992718601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47740588627195202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48791276782927601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.479290867089749</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47944954817455698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.486442478200453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47985965417757898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47402916825591901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47734215427158799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47177204298915298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46755213849181299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47105699365355103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.469732168913574</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.465720987788944</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46395079066591399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4740969337507</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45367542176735998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.47989089462592199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46970537451338601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46184082774917301</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.458474469063826</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45559153455187501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43833944386379797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.440441733131542</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44545093420975101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.437869567372971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43831547895454598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42635438660833702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.43361767657643002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42146245912082603</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39535587439540099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.41420543987575298</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.38989465712014498</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.386522517018553</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38945150375871901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37054615896027598</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38053520388328299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.354370893581956</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.34518107147080401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.325921255762263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.32073210712184202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31362180076790702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29558235879631101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30727864357789503</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.29655865528436798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.27373182191533502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.26855065545004397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.26395618140139998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.220241073342275</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23272005211577099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.210522112932371</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.2039709383735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19585234042229799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.202311404246177</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18434376870480601</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.184823334288924</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16349949306328601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.16415664428402499</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16622194601676199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14453373301663799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.13688968697071699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13689382446002399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED34-49D4-9B2C-417D9356AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income Tax 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.49757466419922503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49986675812551901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50271299529657298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49997131433346498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48703747108325401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50062959674784202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49312728005900502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.500299685824111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49296604564520102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49239523776774302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49071009881447297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49644698306619101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48742328548382702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.478955376559972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48320210957869703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.486743573489343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48146364674431902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45535172096753002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48065975499297298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45787860985575601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46379358407938098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.440877628383116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45539937224465299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46568945516635002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.43768654811701002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45774227971111198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.43628341177755903</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43609768019620099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.437682411595615</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.434974704941196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41977381032117</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.423975783772092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41711976822844699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41414936539026698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.40228483637370999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.395748178105918</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.40290981198673198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37630195125336102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38082546743270901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36940092638320798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35898723708254898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34454141193578097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33433478322427901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.32345692395269099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3142515156247</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33908312732583701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32343954997380497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.30442085374330202</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28326872349207299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28044742658605798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.27684024996616202</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26429516424983501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.246016620683042</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19843771013311401</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19906751541960699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.17699129009343101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.179482429683988</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.163258700463042</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18996658289058899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.15183135573267101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.153027661738982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14449182178322101</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14570738791075499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.170204746183899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13590734262680501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.15186004308322401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.13497452457468601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14242741163082501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.12899908307102601</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.14371681454951801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13833885509753399</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14143629074859301</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.123961609768513</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.132511933937076</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.146752568797448</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.13644730997483401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.149524715176163</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14753532008811401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14252356616730699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.148286840371915</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.139959078930462</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.16073575734234399</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.131802973513448</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17374657196924201</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.15511405145478999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.13156123597989999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.15074632667426799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.154992230028521</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.15250873230683001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14361019877800699</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.132798747424209</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.13491366761151899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.14752145592367599</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.147143339448396</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.14122650486105001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.148201123497856</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13483575814278301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14531779849273399</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.15430378737450801</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16077026335241701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ED34-49D4-9B2C-417D9356AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income Tax 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.52747026095948402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52558741916111396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53234954905374798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52710498632626002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53022641533296899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52391843679889205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52644479568748404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52221579952837605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.510701402698576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51524660753741203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51760675181696203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51102555964503105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51314387062682298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51468301760899404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51607248513436799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50870565695506897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50337249247233395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50351616704699897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.508839901011788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50184552142113903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50009391152640503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50260385296910204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50634774514424297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49756684614383001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.50424462730851205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50218790958551895</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50006750457698501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50368531932240801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.497310859945363</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50015768706458896</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50060297596452097</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.50713798145457201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49653936199943999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49853617676172102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48817957534370399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50227559412192702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47456085593619601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47699451199322601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45951939906252998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46511501009929401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44742437217129</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.468689341697483</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46041893778465698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43884740674579698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42669755097874201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44355625394620002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41950579402667398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42824368630335602</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43200063040000097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.413760498108246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40557773405374298</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40004376311066703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.424911393333331</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39076795303308698</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.35914240747598197</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.393714783406167</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39934221887091098</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.38608505403427101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35958463212910002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37778554093566302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32210506298519298</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.35843863682337801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37863035738315798</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.31399083979197501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.30517460769357801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.303982824413355</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32524471723583598</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25747892585572302</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.29146765522755502</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31586953028912002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.21900107585762199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31155276632090501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.28777913734242699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.33197264994076697</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26325926394578603</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.201835233820264</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.258566181075645</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26380610355553402</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.162717472185857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20912134936073401</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.127353949243599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21893515350916201</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.208436932999989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.268661976229219</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.160273234418604</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.131759456565746</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.189680530169546</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.18907293454264801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.173770421733946</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.16100453071373899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.24023559466018701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.157469267630892</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.19553374562220799</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.18775483455150599</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16645781129214801</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.17098940813070401</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15222913129589499</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.158610562464892</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.20298755930485601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16218925258007499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ED34-49D4-9B2C-417D9356AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wealth Tax 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
               <c:f>'Gini Index varying tax wealth'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1295,6 +3369,690 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-333B-4D11-A739-6894EBD2EF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wealth Tax 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.49831999912873898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43883241468314199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28342848422982803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188328307004657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15113617275426899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.145704810367351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14924393874106801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.152948769633698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15523757215651901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15522097710622501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.164362628039912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16607621556024099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17301196279344999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17587757005419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.181016396269984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19074711113425299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.192345139715696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19668359000378399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20016170730874999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.205581511252314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21040482139017799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.216091002082997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.218461897219239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22315845263179401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22849584266780301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23060108625408501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2351712245823</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23993262091020001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23999851136023501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24508291371264901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.246377486170237</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24871065453237301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25154655458631697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.254018186489396</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.258193385100975</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26105184310482799</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26040577320825697</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.264883098819856</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26754833208024298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26896236785057598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27111178892202697</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27274555894123897</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27284802958083698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27576293636051702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27516623023596298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27849729881032698</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27945735455590398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28260726814513898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.283825211939358</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28686864865893502</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28831011917263299</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28909146190086799</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.292805216321535</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29261231220398698</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29303515281118198</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29569987615816101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.296984541589979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.30196200920954902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.303561931498189</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.30666777347820701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.30696512970847101</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30831664025508398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.308948849946724</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.30843793405412001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.31527473863056199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.31262045029562102</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.31544444365255397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.316594834824247</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32006550665336198</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32066182543091898</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31944734305741701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31998680665569001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.324584865730077</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.325193501737922</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.32725883808939799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32428115451512801</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.32938054557408603</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.32669637078824798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.33461880643215203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.333958070811196</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34084287465347402</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.34652836348279498</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.35309179184276801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.359748012762934</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.36697209967413502</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37297185204197703</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38103431990880199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38720286210369098</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.39507581020586802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.40306943947537999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.41063245249575497</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.41859731631279701</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42749252150130201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.43528459596989899</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44361521365338302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45184654511292399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.46170816974396001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47054344307839002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.47893980691257898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.48899282026068802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ED34-49D4-9B2C-417D9356AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gini Index varying tax wealth'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wealth Tax 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax wealth'!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.521157044740994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50651590073295805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39652963632176402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34618165414770602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22569238524888799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.179210003888497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.184726345007691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13621296546716699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14600342297485899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14758199132520999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15938772641603499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16332479418291301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.169603272197487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17361214373267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.170238502741871</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.175479912105861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17987536694554301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18263843184988299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17755917952376399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17590172775125901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.181842182505107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.179679785423114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.186171634689516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17953417092754401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18921529254844599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199396604296354</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.199701325401834</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19008289256039801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20123266619731101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.189777136474619</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19667276788121599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20368795335613399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19819234156889801</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19768957603312201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21297133726226</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20064430937377201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.22266876181057901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22001616805198501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.210202832365777</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22497121370561701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.214215570716311</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21434737313230301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.22192028776504599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23373260844284799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.220282568878959</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.221081938841867</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23057797449461701</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.25588978624877601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23791082238403799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23464085685387401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.233982888586728</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.235169388039462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25556720099347602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.24912473595777701</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25273742454172599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.23802017460629599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.25054234732894698</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.25266710044899598</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.25267887126035898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.244057205855162</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.25730759521324498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25440061752756199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.264377038436793</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26883403322872601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.26780952953902398</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.270315653603664</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.27298463425820002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.27103183700903799</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.27804182273763201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27385887933055397</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.280954742955843</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.28219606560787303</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.28279394371708999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.29207529852981501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.30399327656371899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.314357940493182</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.31902004526623201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.32176679952148202</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.33278777599796999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.33687488479174998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33911924600135201</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.353006225568397</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.35538353340665801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.36495715779664301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.36902017379558799</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37877567282930102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.37897323092602597</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.39328324491076699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.399992774011936</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.40685168212085898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.41468673470899797</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.42544772470249498</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.43390545240852901</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.43947384814976098</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44885508650987099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45663130060763102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.46457562746179898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47266901860458499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.48099085099681499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.489391074988487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-ED34-49D4-9B2C-417D9356AC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1540,6 +4298,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1555,7 +4344,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1581,10 +4370,51 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2140,20 +4970,579 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C30C21-9335-4F11-8DF5-799A4B062FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>577362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22348</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2179,6 +5568,1021 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0575</cdr:x>
+      <cdr:y>0.02764</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16993</cdr:x>
+      <cdr:y>0.09442</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9573310-E02B-4C0A-8647-C73E3C3682A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="262303" y="75833"/>
+          <a:ext cx="512885" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18599</cdr:x>
+      <cdr:y>0.51108</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40604</cdr:x>
+      <cdr:y>0.59655</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D0CD11-20FF-4633-8216-F935410E1164}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="848457" y="1402006"/>
+          <a:ext cx="1003789" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Wealth Tax</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17978</cdr:x>
+      <cdr:y>0.14939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39983</cdr:x>
+      <cdr:y>0.23487</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB4B165-B4F8-4948-BA36-6C4B69985B22}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="820127" y="409820"/>
+          <a:ext cx="1003789" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Income</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> Tax</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Gini Index varying tax (2)"/>
+      <sheetName val="Gini Index varying tax"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Gini Index varying tax</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0.509308258332831</v>
+          </cell>
+          <cell r="B2">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>0.49308701145822198</v>
+          </cell>
+          <cell r="B3">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>0.50049545604622103</v>
+          </cell>
+          <cell r="B4">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>0.50693793712644497</v>
+          </cell>
+          <cell r="B5">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0.50896775565411601</v>
+          </cell>
+          <cell r="B6">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0.50325370507299505</v>
+          </cell>
+          <cell r="B7">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>0.50296568184118495</v>
+          </cell>
+          <cell r="B8">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>0.50482102386798899</v>
+          </cell>
+          <cell r="B9">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>0.50526617683786801</v>
+          </cell>
+          <cell r="B10">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0.49894456816347599</v>
+          </cell>
+          <cell r="B11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0.49506064088294599</v>
+          </cell>
+          <cell r="B12">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>0.49663691812988098</v>
+          </cell>
+          <cell r="B13">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>0.501501680868637</v>
+          </cell>
+          <cell r="B14">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>0.49062828955502602</v>
+          </cell>
+          <cell r="B15">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>0.50276181333205405</v>
+          </cell>
+          <cell r="B16">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>0.49892725407591998</v>
+          </cell>
+          <cell r="B17">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>0.48998298514786298</v>
+          </cell>
+          <cell r="B18">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>0.49776388855641801</v>
+          </cell>
+          <cell r="B19">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>0.49797304016251398</v>
+          </cell>
+          <cell r="B20">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>0.49930381652007799</v>
+          </cell>
+          <cell r="B21">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>0.49906828094724198</v>
+          </cell>
+          <cell r="B22">
+            <v>0.21</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>0.49702454734935803</v>
+          </cell>
+          <cell r="B23">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>0.50257523420058103</v>
+          </cell>
+          <cell r="B24">
+            <v>0.23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>0.50001919447509102</v>
+          </cell>
+          <cell r="B25">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>0.49382851368571001</v>
+          </cell>
+          <cell r="B26">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>0.49111398029162101</v>
+          </cell>
+          <cell r="B27">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>0.49058378489761301</v>
+          </cell>
+          <cell r="B28">
+            <v>0.27</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>0.50127152601971403</v>
+          </cell>
+          <cell r="B29">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>0.49819185086941897</v>
+          </cell>
+          <cell r="B30">
+            <v>0.28999999999999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>0.49819771279171099</v>
+          </cell>
+          <cell r="B31">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>0.48756905259498401</v>
+          </cell>
+          <cell r="B32">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>0.48534365458277801</v>
+          </cell>
+          <cell r="B33">
+            <v>0.32</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>0.48743804595200302</v>
+          </cell>
+          <cell r="B34">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>0.48658993417208402</v>
+          </cell>
+          <cell r="B35">
+            <v>0.34</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>0.49082419352822299</v>
+          </cell>
+          <cell r="B36">
+            <v>0.35</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>0.48086970847120097</v>
+          </cell>
+          <cell r="B37">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>0.48174921425991801</v>
+          </cell>
+          <cell r="B38">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>0.48684371705642698</v>
+          </cell>
+          <cell r="B39">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>0.48114931992718601</v>
+          </cell>
+          <cell r="B40">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>0.47740588627195202</v>
+          </cell>
+          <cell r="B41">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>0.48791276782927601</v>
+          </cell>
+          <cell r="B42">
+            <v>0.41</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>0.479290867089749</v>
+          </cell>
+          <cell r="B43">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>0.47944954817455698</v>
+          </cell>
+          <cell r="B44">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>0.486442478200453</v>
+          </cell>
+          <cell r="B45">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>0.47985965417757898</v>
+          </cell>
+          <cell r="B46">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>0.47402916825591901</v>
+          </cell>
+          <cell r="B47">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>0.47734215427158799</v>
+          </cell>
+          <cell r="B48">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>0.47177204298915298</v>
+          </cell>
+          <cell r="B49">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>0.46755213849181299</v>
+          </cell>
+          <cell r="B50">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>0.47105699365355103</v>
+          </cell>
+          <cell r="B51">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>0.469732168913574</v>
+          </cell>
+          <cell r="B52">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>0.465720987788944</v>
+          </cell>
+          <cell r="B53">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>0.46395079066591399</v>
+          </cell>
+          <cell r="B54">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>0.4740969337507</v>
+          </cell>
+          <cell r="B55">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>0.45367542176735998</v>
+          </cell>
+          <cell r="B56">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>0.47989089462592199</v>
+          </cell>
+          <cell r="B57">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>0.46970537451338601</v>
+          </cell>
+          <cell r="B58">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>0.46184082774917301</v>
+          </cell>
+          <cell r="B59">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>0.458474469063826</v>
+          </cell>
+          <cell r="B60">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>0.45559153455187501</v>
+          </cell>
+          <cell r="B61">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>0.43833944386379797</v>
+          </cell>
+          <cell r="B62">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>0.440441733131542</v>
+          </cell>
+          <cell r="B63">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>0.44545093420975101</v>
+          </cell>
+          <cell r="B64">
+            <v>0.63</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>0.437869567372971</v>
+          </cell>
+          <cell r="B65">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>0.43831547895454598</v>
+          </cell>
+          <cell r="B66">
+            <v>0.65</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>0.42635438660833702</v>
+          </cell>
+          <cell r="B67">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>0.43361767657643002</v>
+          </cell>
+          <cell r="B68">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>0.42146245912082603</v>
+          </cell>
+          <cell r="B69">
+            <v>0.68</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>0.39535587439540099</v>
+          </cell>
+          <cell r="B70">
+            <v>0.69</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>0.41420543987575298</v>
+          </cell>
+          <cell r="B71">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>0.38989465712014498</v>
+          </cell>
+          <cell r="B72">
+            <v>0.71</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>0.386522517018553</v>
+          </cell>
+          <cell r="B73">
+            <v>0.72</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>0.38945150375871901</v>
+          </cell>
+          <cell r="B74">
+            <v>0.73</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>0.37054615896027598</v>
+          </cell>
+          <cell r="B75">
+            <v>0.74</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>0.38053520388328299</v>
+          </cell>
+          <cell r="B76">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>0.354370893581956</v>
+          </cell>
+          <cell r="B77">
+            <v>0.76</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>0.34518107147080401</v>
+          </cell>
+          <cell r="B78">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>0.325921255762263</v>
+          </cell>
+          <cell r="B79">
+            <v>0.78</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>0.32073210712184202</v>
+          </cell>
+          <cell r="B80">
+            <v>0.79</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>0.31362180076790702</v>
+          </cell>
+          <cell r="B81">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>0.29558235879631101</v>
+          </cell>
+          <cell r="B82">
+            <v>0.81</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>0.30727864357789503</v>
+          </cell>
+          <cell r="B83">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>0.29655865528436798</v>
+          </cell>
+          <cell r="B84">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>0.27373182191533502</v>
+          </cell>
+          <cell r="B85">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>0.26855065545004397</v>
+          </cell>
+          <cell r="B86">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>0.26395618140139998</v>
+          </cell>
+          <cell r="B87">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>0.220241073342275</v>
+          </cell>
+          <cell r="B88">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>0.23272005211577099</v>
+          </cell>
+          <cell r="B89">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>0.210522112932371</v>
+          </cell>
+          <cell r="B90">
+            <v>0.89</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>0.2039709383735</v>
+          </cell>
+          <cell r="B91">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>0.19585234042229799</v>
+          </cell>
+          <cell r="B92">
+            <v>0.91</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>0.202311404246177</v>
+          </cell>
+          <cell r="B93">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>0.18434376870480601</v>
+          </cell>
+          <cell r="B94">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>0.184823334288924</v>
+          </cell>
+          <cell r="B95">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>0.16349949306328601</v>
+          </cell>
+          <cell r="B96">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>0.16415664428402499</v>
+          </cell>
+          <cell r="B97">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>0.16622194601676199</v>
+          </cell>
+          <cell r="B98">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>0.14453373301663799</v>
+          </cell>
+          <cell r="B99">
+            <v>0.98</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>0.13688968697071699</v>
+          </cell>
+          <cell r="B100">
+            <v>0.99</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>0.13689382446002399</v>
+          </cell>
+          <cell r="B101">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2477,11 +6881,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942CAFF9-87A5-46E2-B6AF-AC969213A37C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,802 +6898,3143 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.51033782100000002</v>
-      </c>
-      <c r="B2" s="1">
+        <v>0.509308258332831</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.481383175</v>
-      </c>
-      <c r="B3" s="1">
+        <v>0.49308701145822198</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.45306692100000001</v>
-      </c>
-      <c r="B4" s="1">
+        <v>0.50049545604622103</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.41013245599999998</v>
-      </c>
-      <c r="B5" s="1">
+        <v>0.50693793712644497</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.36057737099999998</v>
-      </c>
-      <c r="B6" s="1">
+        <v>0.50896775565411601</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.30062317100000002</v>
-      </c>
-      <c r="B7" s="1">
+        <v>0.50325370507299505</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.27640223200000003</v>
-      </c>
-      <c r="B8" s="1">
+        <v>0.50296568184118495</v>
+      </c>
+      <c r="B8" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.275572331</v>
-      </c>
-      <c r="B9" s="1">
+        <v>0.50482102386798899</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.25988460099999999</v>
-      </c>
-      <c r="B10" s="1">
+        <v>0.50526617683786801</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.22194535500000001</v>
-      </c>
-      <c r="B11" s="1">
+        <v>0.49894456816347599</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.20472800099999999</v>
-      </c>
-      <c r="B12" s="1">
+        <v>0.49506064088294599</v>
+      </c>
+      <c r="B12" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.20761591900000001</v>
-      </c>
-      <c r="B13" s="1">
+        <v>0.49663691812988098</v>
+      </c>
+      <c r="B13" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.20199558200000001</v>
-      </c>
-      <c r="B14" s="1">
+        <v>0.501501680868637</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.16565922399999999</v>
-      </c>
-      <c r="B15" s="1">
+        <v>0.49062828955502602</v>
+      </c>
+      <c r="B15" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.14979155799999999</v>
-      </c>
-      <c r="B16" s="1">
+        <v>0.50276181333205405</v>
+      </c>
+      <c r="B16" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.16989853299999999</v>
-      </c>
-      <c r="B17" s="1">
+        <v>0.49892725407591998</v>
+      </c>
+      <c r="B17" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.152840639</v>
-      </c>
-      <c r="B18" s="1">
+        <v>0.48998298514786298</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.17360309299999999</v>
-      </c>
-      <c r="B19" s="1">
+        <v>0.49776388855641801</v>
+      </c>
+      <c r="B19" s="2">
         <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.13610819599999999</v>
-      </c>
-      <c r="B20" s="1">
+        <v>0.49797304016251398</v>
+      </c>
+      <c r="B20" s="2">
         <v>0.19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.14941766400000001</v>
-      </c>
-      <c r="B21" s="1">
+        <v>0.49930381652007799</v>
+      </c>
+      <c r="B21" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.149338741</v>
-      </c>
-      <c r="B22" s="1">
+        <v>0.49906828094724198</v>
+      </c>
+      <c r="B22" s="2">
         <v>0.21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.14489582300000001</v>
-      </c>
-      <c r="B23" s="1">
+        <v>0.49702454734935803</v>
+      </c>
+      <c r="B23" s="2">
         <v>0.22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.14752372599999999</v>
-      </c>
-      <c r="B24" s="1">
+        <v>0.50257523420058103</v>
+      </c>
+      <c r="B24" s="2">
         <v>0.23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.15269423600000001</v>
-      </c>
-      <c r="B25" s="1">
+        <v>0.50001919447509102</v>
+      </c>
+      <c r="B25" s="2">
         <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.16732054399999999</v>
-      </c>
-      <c r="B26" s="1">
+        <v>0.49382851368571001</v>
+      </c>
+      <c r="B26" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.16405619499999999</v>
-      </c>
-      <c r="B27" s="1">
+        <v>0.49111398029162101</v>
+      </c>
+      <c r="B27" s="2">
         <v>0.26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.15775370499999999</v>
-      </c>
-      <c r="B28" s="1">
+        <v>0.49058378489761301</v>
+      </c>
+      <c r="B28" s="2">
         <v>0.27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.184942677</v>
-      </c>
-      <c r="B29" s="1">
+        <v>0.50127152601971403</v>
+      </c>
+      <c r="B29" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.17777932199999999</v>
-      </c>
-      <c r="B30" s="1">
+        <v>0.49819185086941897</v>
+      </c>
+      <c r="B30" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.18554916099999999</v>
-      </c>
-      <c r="B31" s="1">
+        <v>0.49819771279171099</v>
+      </c>
+      <c r="B31" s="2">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.19234352099999999</v>
-      </c>
-      <c r="B32" s="1">
+        <v>0.48756905259498401</v>
+      </c>
+      <c r="B32" s="2">
         <v>0.31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.19138653899999999</v>
-      </c>
-      <c r="B33" s="1">
+        <v>0.48534365458277801</v>
+      </c>
+      <c r="B33" s="2">
         <v>0.32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.19067953200000001</v>
-      </c>
-      <c r="B34" s="1">
+        <v>0.48743804595200302</v>
+      </c>
+      <c r="B34" s="2">
         <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.17945541800000001</v>
-      </c>
-      <c r="B35" s="1">
+        <v>0.48658993417208402</v>
+      </c>
+      <c r="B35" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.19479930400000001</v>
-      </c>
-      <c r="B36" s="1">
+        <v>0.49082419352822299</v>
+      </c>
+      <c r="B36" s="2">
         <v>0.35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.190692425</v>
-      </c>
-      <c r="B37" s="1">
+        <v>0.48086970847120097</v>
+      </c>
+      <c r="B37" s="2">
         <v>0.36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.19443186500000001</v>
-      </c>
-      <c r="B38" s="1">
+        <v>0.48174921425991801</v>
+      </c>
+      <c r="B38" s="2">
         <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.187232652</v>
-      </c>
-      <c r="B39" s="1">
+        <v>0.48684371705642698</v>
+      </c>
+      <c r="B39" s="2">
         <v>0.38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.19808363200000001</v>
-      </c>
-      <c r="B40" s="1">
+        <v>0.48114931992718601</v>
+      </c>
+      <c r="B40" s="2">
         <v>0.39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.19138166500000001</v>
-      </c>
-      <c r="B41" s="1">
+        <v>0.47740588627195202</v>
+      </c>
+      <c r="B41" s="2">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.194204761</v>
-      </c>
-      <c r="B42" s="1">
+        <v>0.48791276782927601</v>
+      </c>
+      <c r="B42" s="2">
         <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.17797548399999999</v>
-      </c>
-      <c r="B43" s="1">
+        <v>0.479290867089749</v>
+      </c>
+      <c r="B43" s="2">
         <v>0.42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.19321698000000001</v>
-      </c>
-      <c r="B44" s="1">
+        <v>0.47944954817455698</v>
+      </c>
+      <c r="B44" s="2">
         <v>0.43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.19739209899999999</v>
-      </c>
-      <c r="B45" s="1">
+        <v>0.486442478200453</v>
+      </c>
+      <c r="B45" s="2">
         <v>0.44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.19375875300000001</v>
-      </c>
-      <c r="B46" s="1">
+        <v>0.47985965417757898</v>
+      </c>
+      <c r="B46" s="2">
         <v>0.45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.186827886</v>
-      </c>
-      <c r="B47" s="1">
+        <v>0.47402916825591901</v>
+      </c>
+      <c r="B47" s="2">
         <v>0.46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.19642941799999999</v>
-      </c>
-      <c r="B48" s="1">
+        <v>0.47734215427158799</v>
+      </c>
+      <c r="B48" s="2">
         <v>0.47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.19335176400000001</v>
-      </c>
-      <c r="B49" s="1">
+        <v>0.47177204298915298</v>
+      </c>
+      <c r="B49" s="2">
         <v>0.48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.19056542900000001</v>
-      </c>
-      <c r="B50" s="1">
+        <v>0.46755213849181299</v>
+      </c>
+      <c r="B50" s="2">
         <v>0.49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.19793738599999999</v>
-      </c>
-      <c r="B51" s="1">
+        <v>0.47105699365355103</v>
+      </c>
+      <c r="B51" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.194941435</v>
-      </c>
-      <c r="B52" s="1">
+        <v>0.469732168913574</v>
+      </c>
+      <c r="B52" s="2">
         <v>0.51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.19592806300000001</v>
-      </c>
-      <c r="B53" s="1">
+        <v>0.465720987788944</v>
+      </c>
+      <c r="B53" s="2">
         <v>0.52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.19331536599999999</v>
-      </c>
-      <c r="B54" s="1">
+        <v>0.46395079066591399</v>
+      </c>
+      <c r="B54" s="2">
         <v>0.53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.196359793</v>
-      </c>
-      <c r="B55" s="1">
+        <v>0.4740969337507</v>
+      </c>
+      <c r="B55" s="2">
         <v>0.54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.19557582100000001</v>
-      </c>
-      <c r="B56" s="1">
+        <v>0.45367542176735998</v>
+      </c>
+      <c r="B56" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.195532443</v>
-      </c>
-      <c r="B57" s="1">
+        <v>0.47989089462592199</v>
+      </c>
+      <c r="B57" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.200178682</v>
-      </c>
-      <c r="B58" s="1">
+        <v>0.46970537451338601</v>
+      </c>
+      <c r="B58" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.19895752999999999</v>
-      </c>
-      <c r="B59" s="1">
+        <v>0.46184082774917301</v>
+      </c>
+      <c r="B59" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.20140276200000001</v>
-      </c>
-      <c r="B60" s="1">
+        <v>0.458474469063826</v>
+      </c>
+      <c r="B60" s="2">
         <v>0.59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.20355783099999999</v>
-      </c>
-      <c r="B61" s="1">
+        <v>0.45559153455187501</v>
+      </c>
+      <c r="B61" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.205980205</v>
-      </c>
-      <c r="B62" s="1">
+        <v>0.43833944386379797</v>
+      </c>
+      <c r="B62" s="2">
         <v>0.61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.205892295</v>
-      </c>
-      <c r="B63" s="1">
+        <v>0.440441733131542</v>
+      </c>
+      <c r="B63" s="2">
         <v>0.62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.20634939799999999</v>
-      </c>
-      <c r="B64" s="1">
+        <v>0.44545093420975101</v>
+      </c>
+      <c r="B64" s="2">
         <v>0.63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.211131077</v>
-      </c>
-      <c r="B65" s="1">
+        <v>0.437869567372971</v>
+      </c>
+      <c r="B65" s="2">
         <v>0.64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.20661810799999999</v>
-      </c>
-      <c r="B66" s="1">
+        <v>0.43831547895454598</v>
+      </c>
+      <c r="B66" s="2">
         <v>0.65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.209801395</v>
-      </c>
-      <c r="B67" s="1">
+        <v>0.42635438660833702</v>
+      </c>
+      <c r="B67" s="2">
         <v>0.66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.21845569500000001</v>
-      </c>
-      <c r="B68" s="1">
+        <v>0.43361767657643002</v>
+      </c>
+      <c r="B68" s="2">
         <v>0.67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.21644449399999999</v>
-      </c>
-      <c r="B69" s="1">
+        <v>0.42146245912082603</v>
+      </c>
+      <c r="B69" s="2">
         <v>0.68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.21642787499999999</v>
-      </c>
-      <c r="B70" s="1">
+        <v>0.39535587439540099</v>
+      </c>
+      <c r="B70" s="2">
         <v>0.69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.21388679599999999</v>
-      </c>
-      <c r="B71" s="1">
+        <v>0.41420543987575298</v>
+      </c>
+      <c r="B71" s="2">
         <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.22370584600000001</v>
-      </c>
-      <c r="B72" s="1">
+        <v>0.38989465712014498</v>
+      </c>
+      <c r="B72" s="2">
         <v>0.71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.224104052</v>
-      </c>
-      <c r="B73" s="1">
+        <v>0.386522517018553</v>
+      </c>
+      <c r="B73" s="2">
         <v>0.72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.226473489</v>
-      </c>
-      <c r="B74" s="1">
+        <v>0.38945150375871901</v>
+      </c>
+      <c r="B74" s="2">
         <v>0.73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.22982893300000001</v>
-      </c>
-      <c r="B75" s="1">
+        <v>0.37054615896027598</v>
+      </c>
+      <c r="B75" s="2">
         <v>0.74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.23579187400000001</v>
-      </c>
-      <c r="B76" s="1">
+        <v>0.38053520388328299</v>
+      </c>
+      <c r="B76" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.23509226599999999</v>
-      </c>
-      <c r="B77" s="1">
+        <v>0.354370893581956</v>
+      </c>
+      <c r="B77" s="2">
         <v>0.76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.23797378999999999</v>
-      </c>
-      <c r="B78" s="1">
+        <v>0.34518107147080401</v>
+      </c>
+      <c r="B78" s="2">
         <v>0.77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.245429964</v>
-      </c>
-      <c r="B79" s="1">
+        <v>0.325921255762263</v>
+      </c>
+      <c r="B79" s="2">
         <v>0.78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.243427485</v>
-      </c>
-      <c r="B80" s="1">
+        <v>0.32073210712184202</v>
+      </c>
+      <c r="B80" s="2">
         <v>0.79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.24791012800000001</v>
-      </c>
-      <c r="B81" s="1">
+        <v>0.31362180076790702</v>
+      </c>
+      <c r="B81" s="2">
         <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.25329700199999999</v>
-      </c>
-      <c r="B82" s="1">
+        <v>0.29558235879631101</v>
+      </c>
+      <c r="B82" s="2">
         <v>0.81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.25807266200000001</v>
-      </c>
-      <c r="B83" s="1">
+        <v>0.30727864357789503</v>
+      </c>
+      <c r="B83" s="2">
         <v>0.82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.258245538</v>
-      </c>
-      <c r="B84" s="1">
+        <v>0.29655865528436798</v>
+      </c>
+      <c r="B84" s="2">
         <v>0.83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.26315858800000003</v>
-      </c>
-      <c r="B85" s="1">
+        <v>0.27373182191533502</v>
+      </c>
+      <c r="B85" s="2">
         <v>0.84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.267588241</v>
-      </c>
-      <c r="B86" s="1">
+        <v>0.26855065545004397</v>
+      </c>
+      <c r="B86" s="2">
         <v>0.85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.26752849699999998</v>
-      </c>
-      <c r="B87" s="1">
+        <v>0.26395618140139998</v>
+      </c>
+      <c r="B87" s="2">
         <v>0.86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.28092859100000001</v>
-      </c>
-      <c r="B88" s="1">
+        <v>0.220241073342275</v>
+      </c>
+      <c r="B88" s="2">
         <v>0.87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.27879070099999997</v>
-      </c>
-      <c r="B89" s="1">
+        <v>0.23272005211577099</v>
+      </c>
+      <c r="B89" s="2">
         <v>0.88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.27596536500000002</v>
-      </c>
-      <c r="B90" s="1">
+        <v>0.210522112932371</v>
+      </c>
+      <c r="B90" s="2">
         <v>0.89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.29264016599999998</v>
-      </c>
-      <c r="B91" s="1">
+        <v>0.2039709383735</v>
+      </c>
+      <c r="B91" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.291810758</v>
-      </c>
-      <c r="B92" s="1">
+        <v>0.19585234042229799</v>
+      </c>
+      <c r="B92" s="2">
         <v>0.91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.31753731000000002</v>
-      </c>
-      <c r="B93" s="1">
+        <v>0.202311404246177</v>
+      </c>
+      <c r="B93" s="2">
         <v>0.92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.31834126600000001</v>
-      </c>
-      <c r="B94" s="1">
+        <v>0.18434376870480601</v>
+      </c>
+      <c r="B94" s="2">
         <v>0.93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.32991347599999998</v>
-      </c>
-      <c r="B95" s="1">
+        <v>0.184823334288924</v>
+      </c>
+      <c r="B95" s="2">
         <v>0.94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.33778249300000002</v>
-      </c>
-      <c r="B96" s="1">
+        <v>0.16349949306328601</v>
+      </c>
+      <c r="B96" s="2">
         <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.34217512900000002</v>
-      </c>
-      <c r="B97" s="1">
+        <v>0.16415664428402499</v>
+      </c>
+      <c r="B97" s="2">
         <v>0.96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.35514468700000001</v>
-      </c>
-      <c r="B98" s="1">
+        <v>0.16622194601676199</v>
+      </c>
+      <c r="B98" s="2">
         <v>0.97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.37602444699999998</v>
-      </c>
-      <c r="B99" s="1">
+        <v>0.14453373301663799</v>
+      </c>
+      <c r="B99" s="2">
         <v>0.98</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.39547243999999998</v>
-      </c>
-      <c r="B100" s="1">
+        <v>0.13688968697071699</v>
+      </c>
+      <c r="B100" s="2">
         <v>0.99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>0.13689382446002399</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>0.509308258332831</v>
+      </c>
+      <c r="C2">
+        <v>0.51033782100000002</v>
+      </c>
+      <c r="E2">
+        <v>0.49757466419922503</v>
+      </c>
+      <c r="F2">
+        <v>0.52747026095948402</v>
+      </c>
+      <c r="I2">
+        <v>0.49831999912873898</v>
+      </c>
+      <c r="J2">
+        <v>0.521157044740994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>0.49308701145822198</v>
+      </c>
+      <c r="C3">
+        <v>0.481383175</v>
+      </c>
+      <c r="E3">
+        <v>0.49986675812551901</v>
+      </c>
+      <c r="F3">
+        <v>0.52558741916111396</v>
+      </c>
+      <c r="I3">
+        <v>0.43883241468314199</v>
+      </c>
+      <c r="J3">
+        <v>0.50651590073295805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="B4">
+        <v>0.50049545604622103</v>
+      </c>
+      <c r="C4">
+        <v>0.45306692100000001</v>
+      </c>
+      <c r="E4">
+        <v>0.50271299529657298</v>
+      </c>
+      <c r="F4">
+        <v>0.53234954905374798</v>
+      </c>
+      <c r="I4">
+        <v>0.28342848422982803</v>
+      </c>
+      <c r="J4">
+        <v>0.39652963632176402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <v>0.50693793712644497</v>
+      </c>
+      <c r="C5">
+        <v>0.41013245599999998</v>
+      </c>
+      <c r="E5">
+        <v>0.49997131433346498</v>
+      </c>
+      <c r="F5">
+        <v>0.52710498632626002</v>
+      </c>
+      <c r="I5">
+        <v>0.188328307004657</v>
+      </c>
+      <c r="J5">
+        <v>0.34618165414770602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>0.50896775565411601</v>
+      </c>
+      <c r="C6">
+        <v>0.36057737099999998</v>
+      </c>
+      <c r="E6">
+        <v>0.48703747108325401</v>
+      </c>
+      <c r="F6">
+        <v>0.53022641533296899</v>
+      </c>
+      <c r="I6">
+        <v>0.15113617275426899</v>
+      </c>
+      <c r="J6">
+        <v>0.22569238524888799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B7">
+        <v>0.50325370507299505</v>
+      </c>
+      <c r="C7">
+        <v>0.30062317100000002</v>
+      </c>
+      <c r="E7">
+        <v>0.50062959674784202</v>
+      </c>
+      <c r="F7">
+        <v>0.52391843679889205</v>
+      </c>
+      <c r="I7">
+        <v>0.145704810367351</v>
+      </c>
+      <c r="J7">
+        <v>0.179210003888497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.50296568184118495</v>
+      </c>
+      <c r="C8">
+        <v>0.27640223200000003</v>
+      </c>
+      <c r="E8">
+        <v>0.49312728005900502</v>
+      </c>
+      <c r="F8">
+        <v>0.52644479568748404</v>
+      </c>
+      <c r="I8">
+        <v>0.14924393874106801</v>
+      </c>
+      <c r="J8">
+        <v>0.184726345007691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>0.50482102386798899</v>
+      </c>
+      <c r="C9">
+        <v>0.275572331</v>
+      </c>
+      <c r="E9">
+        <v>0.500299685824111</v>
+      </c>
+      <c r="F9">
+        <v>0.52221579952837605</v>
+      </c>
+      <c r="I9">
+        <v>0.152948769633698</v>
+      </c>
+      <c r="J9">
+        <v>0.13621296546716699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <v>0.50526617683786801</v>
+      </c>
+      <c r="C10">
+        <v>0.25988460099999999</v>
+      </c>
+      <c r="E10">
+        <v>0.49296604564520102</v>
+      </c>
+      <c r="F10">
+        <v>0.510701402698576</v>
+      </c>
+      <c r="I10">
+        <v>0.15523757215651901</v>
+      </c>
+      <c r="J10">
+        <v>0.14600342297485899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>0.49894456816347599</v>
+      </c>
+      <c r="C11">
+        <v>0.22194535500000001</v>
+      </c>
+      <c r="E11">
+        <v>0.49239523776774302</v>
+      </c>
+      <c r="F11">
+        <v>0.51524660753741203</v>
+      </c>
+      <c r="I11">
+        <v>0.15522097710622501</v>
+      </c>
+      <c r="J11">
+        <v>0.14758199132520999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="B12">
+        <v>0.49506064088294599</v>
+      </c>
+      <c r="C12">
+        <v>0.20472800099999999</v>
+      </c>
+      <c r="E12">
+        <v>0.49071009881447297</v>
+      </c>
+      <c r="F12">
+        <v>0.51760675181696203</v>
+      </c>
+      <c r="I12">
+        <v>0.164362628039912</v>
+      </c>
+      <c r="J12">
+        <v>0.15938772641603499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B13">
+        <v>0.49663691812988098</v>
+      </c>
+      <c r="C13">
+        <v>0.20761591900000001</v>
+      </c>
+      <c r="E13">
+        <v>0.49644698306619101</v>
+      </c>
+      <c r="F13">
+        <v>0.51102555964503105</v>
+      </c>
+      <c r="I13">
+        <v>0.16607621556024099</v>
+      </c>
+      <c r="J13">
+        <v>0.16332479418291301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="B14">
+        <v>0.501501680868637</v>
+      </c>
+      <c r="C14">
+        <v>0.20199558200000001</v>
+      </c>
+      <c r="E14">
+        <v>0.48742328548382702</v>
+      </c>
+      <c r="F14">
+        <v>0.51314387062682298</v>
+      </c>
+      <c r="I14">
+        <v>0.17301196279344999</v>
+      </c>
+      <c r="J14">
+        <v>0.169603272197487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.49062828955502602</v>
+      </c>
+      <c r="C15">
+        <v>0.16565922399999999</v>
+      </c>
+      <c r="E15">
+        <v>0.478955376559972</v>
+      </c>
+      <c r="F15">
+        <v>0.51468301760899404</v>
+      </c>
+      <c r="I15">
+        <v>0.17587757005419</v>
+      </c>
+      <c r="J15">
+        <v>0.17361214373267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B16">
+        <v>0.50276181333205405</v>
+      </c>
+      <c r="C16">
+        <v>0.14979155799999999</v>
+      </c>
+      <c r="E16">
+        <v>0.48320210957869703</v>
+      </c>
+      <c r="F16">
+        <v>0.51607248513436799</v>
+      </c>
+      <c r="I16">
+        <v>0.181016396269984</v>
+      </c>
+      <c r="J16">
+        <v>0.170238502741871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="B17">
+        <v>0.49892725407591998</v>
+      </c>
+      <c r="C17">
+        <v>0.16989853299999999</v>
+      </c>
+      <c r="E17">
+        <v>0.486743573489343</v>
+      </c>
+      <c r="F17">
+        <v>0.50870565695506897</v>
+      </c>
+      <c r="I17">
+        <v>0.19074711113425299</v>
+      </c>
+      <c r="J17">
+        <v>0.175479912105861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="B18">
+        <v>0.48998298514786298</v>
+      </c>
+      <c r="C18">
+        <v>0.152840639</v>
+      </c>
+      <c r="E18">
+        <v>0.48146364674431902</v>
+      </c>
+      <c r="F18">
+        <v>0.50337249247233395</v>
+      </c>
+      <c r="I18">
+        <v>0.192345139715696</v>
+      </c>
+      <c r="J18">
+        <v>0.17987536694554301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="B19">
+        <v>0.49776388855641801</v>
+      </c>
+      <c r="C19">
+        <v>0.17360309299999999</v>
+      </c>
+      <c r="E19">
+        <v>0.45535172096753002</v>
+      </c>
+      <c r="F19">
+        <v>0.50351616704699897</v>
+      </c>
+      <c r="I19">
+        <v>0.19668359000378399</v>
+      </c>
+      <c r="J19">
+        <v>0.18263843184988299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="B20">
+        <v>0.49797304016251398</v>
+      </c>
+      <c r="C20">
+        <v>0.13610819599999999</v>
+      </c>
+      <c r="E20">
+        <v>0.48065975499297298</v>
+      </c>
+      <c r="F20">
+        <v>0.508839901011788</v>
+      </c>
+      <c r="I20">
+        <v>0.20016170730874999</v>
+      </c>
+      <c r="J20">
+        <v>0.17755917952376399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>0.49930381652007799</v>
+      </c>
+      <c r="C21">
+        <v>0.14941766400000001</v>
+      </c>
+      <c r="E21">
+        <v>0.45787860985575601</v>
+      </c>
+      <c r="F21">
+        <v>0.50184552142113903</v>
+      </c>
+      <c r="I21">
+        <v>0.205581511252314</v>
+      </c>
+      <c r="J21">
+        <v>0.17590172775125901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="B22">
+        <v>0.49906828094724198</v>
+      </c>
+      <c r="C22">
+        <v>0.149338741</v>
+      </c>
+      <c r="E22">
+        <v>0.46379358407938098</v>
+      </c>
+      <c r="F22">
+        <v>0.50009391152640503</v>
+      </c>
+      <c r="I22">
+        <v>0.21040482139017799</v>
+      </c>
+      <c r="J22">
+        <v>0.181842182505107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="B23">
+        <v>0.49702454734935803</v>
+      </c>
+      <c r="C23">
+        <v>0.14489582300000001</v>
+      </c>
+      <c r="E23">
+        <v>0.440877628383116</v>
+      </c>
+      <c r="F23">
+        <v>0.50260385296910204</v>
+      </c>
+      <c r="I23">
+        <v>0.216091002082997</v>
+      </c>
+      <c r="J23">
+        <v>0.179679785423114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="B24">
+        <v>0.50257523420058103</v>
+      </c>
+      <c r="C24">
+        <v>0.14752372599999999</v>
+      </c>
+      <c r="E24">
+        <v>0.45539937224465299</v>
+      </c>
+      <c r="F24">
+        <v>0.50634774514424297</v>
+      </c>
+      <c r="I24">
+        <v>0.218461897219239</v>
+      </c>
+      <c r="J24">
+        <v>0.186171634689516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="B25">
+        <v>0.50001919447509102</v>
+      </c>
+      <c r="C25">
+        <v>0.15269423600000001</v>
+      </c>
+      <c r="E25">
+        <v>0.46568945516635002</v>
+      </c>
+      <c r="F25">
+        <v>0.49756684614383001</v>
+      </c>
+      <c r="I25">
+        <v>0.22315845263179401</v>
+      </c>
+      <c r="J25">
+        <v>0.17953417092754401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B26">
+        <v>0.49382851368571001</v>
+      </c>
+      <c r="C26">
+        <v>0.16732054399999999</v>
+      </c>
+      <c r="E26">
+        <v>0.43768654811701002</v>
+      </c>
+      <c r="F26">
+        <v>0.50424462730851205</v>
+      </c>
+      <c r="I26">
+        <v>0.22849584266780301</v>
+      </c>
+      <c r="J26">
+        <v>0.18921529254844599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="B27">
+        <v>0.49111398029162101</v>
+      </c>
+      <c r="C27">
+        <v>0.16405619499999999</v>
+      </c>
+      <c r="E27">
+        <v>0.45774227971111198</v>
+      </c>
+      <c r="F27">
+        <v>0.50218790958551895</v>
+      </c>
+      <c r="I27">
+        <v>0.23060108625408501</v>
+      </c>
+      <c r="J27">
+        <v>0.199396604296354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="B28">
+        <v>0.49058378489761301</v>
+      </c>
+      <c r="C28">
+        <v>0.15775370499999999</v>
+      </c>
+      <c r="E28">
+        <v>0.43628341177755903</v>
+      </c>
+      <c r="F28">
+        <v>0.50006750457698501</v>
+      </c>
+      <c r="I28">
+        <v>0.2351712245823</v>
+      </c>
+      <c r="J28">
+        <v>0.199701325401834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B29">
+        <v>0.50127152601971403</v>
+      </c>
+      <c r="C29">
+        <v>0.184942677</v>
+      </c>
+      <c r="E29">
+        <v>0.43609768019620099</v>
+      </c>
+      <c r="F29">
+        <v>0.50368531932240801</v>
+      </c>
+      <c r="I29">
+        <v>0.23993262091020001</v>
+      </c>
+      <c r="J29">
+        <v>0.19008289256039801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B30">
+        <v>0.49819185086941897</v>
+      </c>
+      <c r="C30">
+        <v>0.17777932199999999</v>
+      </c>
+      <c r="E30">
+        <v>0.437682411595615</v>
+      </c>
+      <c r="F30">
+        <v>0.497310859945363</v>
+      </c>
+      <c r="I30">
+        <v>0.23999851136023501</v>
+      </c>
+      <c r="J30">
+        <v>0.20123266619731101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.49819771279171099</v>
+      </c>
+      <c r="C31">
+        <v>0.18554916099999999</v>
+      </c>
+      <c r="E31">
+        <v>0.434974704941196</v>
+      </c>
+      <c r="F31">
+        <v>0.50015768706458896</v>
+      </c>
+      <c r="I31">
+        <v>0.24508291371264901</v>
+      </c>
+      <c r="J31">
+        <v>0.189777136474619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="B32">
+        <v>0.48756905259498401</v>
+      </c>
+      <c r="C32">
+        <v>0.19234352099999999</v>
+      </c>
+      <c r="E32">
+        <v>0.41977381032117</v>
+      </c>
+      <c r="F32">
+        <v>0.50060297596452097</v>
+      </c>
+      <c r="I32">
+        <v>0.246377486170237</v>
+      </c>
+      <c r="J32">
+        <v>0.19667276788121599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="B33">
+        <v>0.48534365458277801</v>
+      </c>
+      <c r="C33">
+        <v>0.19138653899999999</v>
+      </c>
+      <c r="E33">
+        <v>0.423975783772092</v>
+      </c>
+      <c r="F33">
+        <v>0.50713798145457201</v>
+      </c>
+      <c r="I33">
+        <v>0.24871065453237301</v>
+      </c>
+      <c r="J33">
+        <v>0.20368795335613399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="B34">
+        <v>0.48743804595200302</v>
+      </c>
+      <c r="C34">
+        <v>0.19067953200000001</v>
+      </c>
+      <c r="E34">
+        <v>0.41711976822844699</v>
+      </c>
+      <c r="F34">
+        <v>0.49653936199943999</v>
+      </c>
+      <c r="I34">
+        <v>0.25154655458631697</v>
+      </c>
+      <c r="J34">
+        <v>0.19819234156889801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="B35">
+        <v>0.48658993417208402</v>
+      </c>
+      <c r="C35">
+        <v>0.17945541800000001</v>
+      </c>
+      <c r="E35">
+        <v>0.41414936539026698</v>
+      </c>
+      <c r="F35">
+        <v>0.49853617676172102</v>
+      </c>
+      <c r="I35">
+        <v>0.254018186489396</v>
+      </c>
+      <c r="J35">
+        <v>0.19768957603312201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B36">
+        <v>0.49082419352822299</v>
+      </c>
+      <c r="C36">
+        <v>0.19479930400000001</v>
+      </c>
+      <c r="E36">
+        <v>0.40228483637370999</v>
+      </c>
+      <c r="F36">
+        <v>0.48817957534370399</v>
+      </c>
+      <c r="I36">
+        <v>0.258193385100975</v>
+      </c>
+      <c r="J36">
+        <v>0.21297133726226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="B37">
+        <v>0.48086970847120097</v>
+      </c>
+      <c r="C37">
+        <v>0.190692425</v>
+      </c>
+      <c r="E37">
+        <v>0.395748178105918</v>
+      </c>
+      <c r="F37">
+        <v>0.50227559412192702</v>
+      </c>
+      <c r="I37">
+        <v>0.26105184310482799</v>
+      </c>
+      <c r="J37">
+        <v>0.20064430937377201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B38">
+        <v>0.48174921425991801</v>
+      </c>
+      <c r="C38">
+        <v>0.19443186500000001</v>
+      </c>
+      <c r="E38">
+        <v>0.40290981198673198</v>
+      </c>
+      <c r="F38">
+        <v>0.47456085593619601</v>
+      </c>
+      <c r="I38">
+        <v>0.26040577320825697</v>
+      </c>
+      <c r="J38">
+        <v>0.22266876181057901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="B39">
+        <v>0.48684371705642698</v>
+      </c>
+      <c r="C39">
+        <v>0.187232652</v>
+      </c>
+      <c r="E39">
+        <v>0.37630195125336102</v>
+      </c>
+      <c r="F39">
+        <v>0.47699451199322601</v>
+      </c>
+      <c r="I39">
+        <v>0.264883098819856</v>
+      </c>
+      <c r="J39">
+        <v>0.22001616805198501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="B40">
+        <v>0.48114931992718601</v>
+      </c>
+      <c r="C40">
+        <v>0.19808363200000001</v>
+      </c>
+      <c r="E40">
+        <v>0.38082546743270901</v>
+      </c>
+      <c r="F40">
+        <v>0.45951939906252998</v>
+      </c>
+      <c r="I40">
+        <v>0.26754833208024298</v>
+      </c>
+      <c r="J40">
+        <v>0.210202832365777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B41">
+        <v>0.47740588627195202</v>
+      </c>
+      <c r="C41">
+        <v>0.19138166500000001</v>
+      </c>
+      <c r="E41">
+        <v>0.36940092638320798</v>
+      </c>
+      <c r="F41">
+        <v>0.46511501009929401</v>
+      </c>
+      <c r="I41">
+        <v>0.26896236785057598</v>
+      </c>
+      <c r="J41">
+        <v>0.22497121370561701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="B42">
+        <v>0.48791276782927601</v>
+      </c>
+      <c r="C42">
+        <v>0.194204761</v>
+      </c>
+      <c r="E42">
+        <v>0.35898723708254898</v>
+      </c>
+      <c r="F42">
+        <v>0.44742437217129</v>
+      </c>
+      <c r="I42">
+        <v>0.27111178892202697</v>
+      </c>
+      <c r="J42">
+        <v>0.214215570716311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="B43">
+        <v>0.479290867089749</v>
+      </c>
+      <c r="C43">
+        <v>0.17797548399999999</v>
+      </c>
+      <c r="E43">
+        <v>0.34454141193578097</v>
+      </c>
+      <c r="F43">
+        <v>0.468689341697483</v>
+      </c>
+      <c r="I43">
+        <v>0.27274555894123897</v>
+      </c>
+      <c r="J43">
+        <v>0.21434737313230301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="B44">
+        <v>0.47944954817455698</v>
+      </c>
+      <c r="C44">
+        <v>0.19321698000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.33433478322427901</v>
+      </c>
+      <c r="F44">
+        <v>0.46041893778465698</v>
+      </c>
+      <c r="I44">
+        <v>0.27284802958083698</v>
+      </c>
+      <c r="J44">
+        <v>0.22192028776504599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="B45">
+        <v>0.486442478200453</v>
+      </c>
+      <c r="C45">
+        <v>0.19739209899999999</v>
+      </c>
+      <c r="E45">
+        <v>0.32345692395269099</v>
+      </c>
+      <c r="F45">
+        <v>0.43884740674579698</v>
+      </c>
+      <c r="I45">
+        <v>0.27576293636051702</v>
+      </c>
+      <c r="J45">
+        <v>0.23373260844284799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B46">
+        <v>0.47985965417757898</v>
+      </c>
+      <c r="C46">
+        <v>0.19375875300000001</v>
+      </c>
+      <c r="E46">
+        <v>0.3142515156247</v>
+      </c>
+      <c r="F46">
+        <v>0.42669755097874201</v>
+      </c>
+      <c r="I46">
+        <v>0.27516623023596298</v>
+      </c>
+      <c r="J46">
+        <v>0.220282568878959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="B47">
+        <v>0.47402916825591901</v>
+      </c>
+      <c r="C47">
+        <v>0.186827886</v>
+      </c>
+      <c r="E47">
+        <v>0.33908312732583701</v>
+      </c>
+      <c r="F47">
+        <v>0.44355625394620002</v>
+      </c>
+      <c r="I47">
+        <v>0.27849729881032698</v>
+      </c>
+      <c r="J47">
+        <v>0.221081938841867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="B48">
+        <v>0.47734215427158799</v>
+      </c>
+      <c r="C48">
+        <v>0.19642941799999999</v>
+      </c>
+      <c r="E48">
+        <v>0.32343954997380497</v>
+      </c>
+      <c r="F48">
+        <v>0.41950579402667398</v>
+      </c>
+      <c r="I48">
+        <v>0.27945735455590398</v>
+      </c>
+      <c r="J48">
+        <v>0.23057797449461701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="B49">
+        <v>0.47177204298915298</v>
+      </c>
+      <c r="C49">
+        <v>0.19335176400000001</v>
+      </c>
+      <c r="E49">
+        <v>0.30442085374330202</v>
+      </c>
+      <c r="F49">
+        <v>0.42824368630335602</v>
+      </c>
+      <c r="I49">
+        <v>0.28260726814513898</v>
+      </c>
+      <c r="J49">
+        <v>0.25588978624877601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="B50">
+        <v>0.46755213849181299</v>
+      </c>
+      <c r="C50">
+        <v>0.19056542900000001</v>
+      </c>
+      <c r="E50">
+        <v>0.28326872349207299</v>
+      </c>
+      <c r="F50">
+        <v>0.43200063040000097</v>
+      </c>
+      <c r="I50">
+        <v>0.283825211939358</v>
+      </c>
+      <c r="J50">
+        <v>0.23791082238403799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <v>0.47105699365355103</v>
+      </c>
+      <c r="C51">
+        <v>0.19793738599999999</v>
+      </c>
+      <c r="E51">
+        <v>0.28044742658605798</v>
+      </c>
+      <c r="F51">
+        <v>0.413760498108246</v>
+      </c>
+      <c r="I51">
+        <v>0.28686864865893502</v>
+      </c>
+      <c r="J51">
+        <v>0.23464085685387401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="B52">
+        <v>0.469732168913574</v>
+      </c>
+      <c r="C52">
+        <v>0.194941435</v>
+      </c>
+      <c r="E52">
+        <v>0.27684024996616202</v>
+      </c>
+      <c r="F52">
+        <v>0.40557773405374298</v>
+      </c>
+      <c r="I52">
+        <v>0.28831011917263299</v>
+      </c>
+      <c r="J52">
+        <v>0.233982888586728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="B53">
+        <v>0.465720987788944</v>
+      </c>
+      <c r="C53">
+        <v>0.19592806300000001</v>
+      </c>
+      <c r="E53">
+        <v>0.26429516424983501</v>
+      </c>
+      <c r="F53">
+        <v>0.40004376311066703</v>
+      </c>
+      <c r="I53">
+        <v>0.28909146190086799</v>
+      </c>
+      <c r="J53">
+        <v>0.235169388039462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="B54">
+        <v>0.46395079066591399</v>
+      </c>
+      <c r="C54">
+        <v>0.19331536599999999</v>
+      </c>
+      <c r="E54">
+        <v>0.246016620683042</v>
+      </c>
+      <c r="F54">
+        <v>0.424911393333331</v>
+      </c>
+      <c r="I54">
+        <v>0.292805216321535</v>
+      </c>
+      <c r="J54">
+        <v>0.25556720099347602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="B55">
+        <v>0.4740969337507</v>
+      </c>
+      <c r="C55">
+        <v>0.196359793</v>
+      </c>
+      <c r="E55">
+        <v>0.19843771013311401</v>
+      </c>
+      <c r="F55">
+        <v>0.39076795303308698</v>
+      </c>
+      <c r="I55">
+        <v>0.29261231220398698</v>
+      </c>
+      <c r="J55">
+        <v>0.24912473595777701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B56">
+        <v>0.45367542176735998</v>
+      </c>
+      <c r="C56">
+        <v>0.19557582100000001</v>
+      </c>
+      <c r="E56">
+        <v>0.19906751541960699</v>
+      </c>
+      <c r="F56">
+        <v>0.35914240747598197</v>
+      </c>
+      <c r="I56">
+        <v>0.29303515281118198</v>
+      </c>
+      <c r="J56">
+        <v>0.25273742454172599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B57">
+        <v>0.47989089462592199</v>
+      </c>
+      <c r="C57">
+        <v>0.195532443</v>
+      </c>
+      <c r="E57">
+        <v>0.17699129009343101</v>
+      </c>
+      <c r="F57">
+        <v>0.393714783406167</v>
+      </c>
+      <c r="I57">
+        <v>0.29569987615816101</v>
+      </c>
+      <c r="J57">
+        <v>0.23802017460629599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B58">
+        <v>0.46970537451338601</v>
+      </c>
+      <c r="C58">
+        <v>0.200178682</v>
+      </c>
+      <c r="E58">
+        <v>0.179482429683988</v>
+      </c>
+      <c r="F58">
+        <v>0.39934221887091098</v>
+      </c>
+      <c r="I58">
+        <v>0.296984541589979</v>
+      </c>
+      <c r="J58">
+        <v>0.25054234732894698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B59">
+        <v>0.46184082774917301</v>
+      </c>
+      <c r="C59">
+        <v>0.19895752999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.163258700463042</v>
+      </c>
+      <c r="F59">
+        <v>0.38608505403427101</v>
+      </c>
+      <c r="I59">
+        <v>0.30196200920954902</v>
+      </c>
+      <c r="J59">
+        <v>0.25266710044899598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="B60">
+        <v>0.458474469063826</v>
+      </c>
+      <c r="C60">
+        <v>0.20140276200000001</v>
+      </c>
+      <c r="E60">
+        <v>0.18996658289058899</v>
+      </c>
+      <c r="F60">
+        <v>0.35958463212910002</v>
+      </c>
+      <c r="I60">
+        <v>0.303561931498189</v>
+      </c>
+      <c r="J60">
+        <v>0.25267887126035898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B61">
+        <v>0.45559153455187501</v>
+      </c>
+      <c r="C61">
+        <v>0.20355783099999999</v>
+      </c>
+      <c r="E61">
+        <v>0.15183135573267101</v>
+      </c>
+      <c r="F61">
+        <v>0.37778554093566302</v>
+      </c>
+      <c r="I61">
+        <v>0.30666777347820701</v>
+      </c>
+      <c r="J61">
+        <v>0.244057205855162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="B62">
+        <v>0.43833944386379797</v>
+      </c>
+      <c r="C62">
+        <v>0.205980205</v>
+      </c>
+      <c r="E62">
+        <v>0.153027661738982</v>
+      </c>
+      <c r="F62">
+        <v>0.32210506298519298</v>
+      </c>
+      <c r="I62">
+        <v>0.30696512970847101</v>
+      </c>
+      <c r="J62">
+        <v>0.25730759521324498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="B63">
+        <v>0.440441733131542</v>
+      </c>
+      <c r="C63">
+        <v>0.205892295</v>
+      </c>
+      <c r="E63">
+        <v>0.14449182178322101</v>
+      </c>
+      <c r="F63">
+        <v>0.35843863682337801</v>
+      </c>
+      <c r="I63">
+        <v>0.30831664025508398</v>
+      </c>
+      <c r="J63">
+        <v>0.25440061752756199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="B64">
+        <v>0.44545093420975101</v>
+      </c>
+      <c r="C64">
+        <v>0.20634939799999999</v>
+      </c>
+      <c r="E64">
+        <v>0.14570738791075499</v>
+      </c>
+      <c r="F64">
+        <v>0.37863035738315798</v>
+      </c>
+      <c r="I64">
+        <v>0.308948849946724</v>
+      </c>
+      <c r="J64">
+        <v>0.264377038436793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="B65">
+        <v>0.437869567372971</v>
+      </c>
+      <c r="C65">
+        <v>0.211131077</v>
+      </c>
+      <c r="E65">
+        <v>0.170204746183899</v>
+      </c>
+      <c r="F65">
+        <v>0.31399083979197501</v>
+      </c>
+      <c r="I65">
+        <v>0.30843793405412001</v>
+      </c>
+      <c r="J65">
+        <v>0.26883403322872601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B66">
+        <v>0.43831547895454598</v>
+      </c>
+      <c r="C66">
+        <v>0.20661810799999999</v>
+      </c>
+      <c r="E66">
+        <v>0.13590734262680501</v>
+      </c>
+      <c r="F66">
+        <v>0.30517460769357801</v>
+      </c>
+      <c r="I66">
+        <v>0.31527473863056199</v>
+      </c>
+      <c r="J66">
+        <v>0.26780952953902398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="B67">
+        <v>0.42635438660833702</v>
+      </c>
+      <c r="C67">
+        <v>0.209801395</v>
+      </c>
+      <c r="E67">
+        <v>0.15186004308322401</v>
+      </c>
+      <c r="F67">
+        <v>0.303982824413355</v>
+      </c>
+      <c r="I67">
+        <v>0.31262045029562102</v>
+      </c>
+      <c r="J67">
+        <v>0.270315653603664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B68">
+        <v>0.43361767657643002</v>
+      </c>
+      <c r="C68">
+        <v>0.21845569500000001</v>
+      </c>
+      <c r="E68">
+        <v>0.13497452457468601</v>
+      </c>
+      <c r="F68">
+        <v>0.32524471723583598</v>
+      </c>
+      <c r="I68">
+        <v>0.31544444365255397</v>
+      </c>
+      <c r="J68">
+        <v>0.27298463425820002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="B69">
+        <v>0.42146245912082603</v>
+      </c>
+      <c r="C69">
+        <v>0.21644449399999999</v>
+      </c>
+      <c r="E69">
+        <v>0.14242741163082501</v>
+      </c>
+      <c r="F69">
+        <v>0.25747892585572302</v>
+      </c>
+      <c r="I69">
+        <v>0.316594834824247</v>
+      </c>
+      <c r="J69">
+        <v>0.27103183700903799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B70">
+        <v>0.39535587439540099</v>
+      </c>
+      <c r="C70">
+        <v>0.21642787499999999</v>
+      </c>
+      <c r="E70">
+        <v>0.12899908307102601</v>
+      </c>
+      <c r="F70">
+        <v>0.29146765522755502</v>
+      </c>
+      <c r="I70">
+        <v>0.32006550665336198</v>
+      </c>
+      <c r="J70">
+        <v>0.27804182273763201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B71">
+        <v>0.41420543987575298</v>
+      </c>
+      <c r="C71">
+        <v>0.21388679599999999</v>
+      </c>
+      <c r="E71">
+        <v>0.14371681454951801</v>
+      </c>
+      <c r="F71">
+        <v>0.31586953028912002</v>
+      </c>
+      <c r="I71">
+        <v>0.32066182543091898</v>
+      </c>
+      <c r="J71">
+        <v>0.27385887933055397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="B72">
+        <v>0.38989465712014498</v>
+      </c>
+      <c r="C72">
+        <v>0.22370584600000001</v>
+      </c>
+      <c r="E72">
+        <v>0.13833885509753399</v>
+      </c>
+      <c r="F72">
+        <v>0.21900107585762199</v>
+      </c>
+      <c r="I72">
+        <v>0.31944734305741701</v>
+      </c>
+      <c r="J72">
+        <v>0.280954742955843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="B73">
+        <v>0.386522517018553</v>
+      </c>
+      <c r="C73">
+        <v>0.224104052</v>
+      </c>
+      <c r="E73">
+        <v>0.14143629074859301</v>
+      </c>
+      <c r="F73">
+        <v>0.31155276632090501</v>
+      </c>
+      <c r="I73">
+        <v>0.31998680665569001</v>
+      </c>
+      <c r="J73">
+        <v>0.28219606560787303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="B74">
+        <v>0.38945150375871901</v>
+      </c>
+      <c r="C74">
+        <v>0.226473489</v>
+      </c>
+      <c r="E74">
+        <v>0.123961609768513</v>
+      </c>
+      <c r="F74">
+        <v>0.28777913734242699</v>
+      </c>
+      <c r="I74">
+        <v>0.324584865730077</v>
+      </c>
+      <c r="J74">
+        <v>0.28279394371708999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B75">
+        <v>0.37054615896027598</v>
+      </c>
+      <c r="C75">
+        <v>0.22982893300000001</v>
+      </c>
+      <c r="E75">
+        <v>0.132511933937076</v>
+      </c>
+      <c r="F75">
+        <v>0.33197264994076697</v>
+      </c>
+      <c r="I75">
+        <v>0.325193501737922</v>
+      </c>
+      <c r="J75">
+        <v>0.29207529852981501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B76">
+        <v>0.38053520388328299</v>
+      </c>
+      <c r="C76">
+        <v>0.23579187400000001</v>
+      </c>
+      <c r="E76">
+        <v>0.146752568797448</v>
+      </c>
+      <c r="F76">
+        <v>0.26325926394578603</v>
+      </c>
+      <c r="I76">
+        <v>0.32725883808939799</v>
+      </c>
+      <c r="J76">
+        <v>0.30399327656371899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="B77">
+        <v>0.354370893581956</v>
+      </c>
+      <c r="C77">
+        <v>0.23509226599999999</v>
+      </c>
+      <c r="E77">
+        <v>0.13644730997483401</v>
+      </c>
+      <c r="F77">
+        <v>0.201835233820264</v>
+      </c>
+      <c r="I77">
+        <v>0.32428115451512801</v>
+      </c>
+      <c r="J77">
+        <v>0.314357940493182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="B78">
+        <v>0.34518107147080401</v>
+      </c>
+      <c r="C78">
+        <v>0.23797378999999999</v>
+      </c>
+      <c r="E78">
+        <v>0.149524715176163</v>
+      </c>
+      <c r="F78">
+        <v>0.258566181075645</v>
+      </c>
+      <c r="I78">
+        <v>0.32938054557408603</v>
+      </c>
+      <c r="J78">
+        <v>0.31902004526623201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="B79">
+        <v>0.325921255762263</v>
+      </c>
+      <c r="C79">
+        <v>0.245429964</v>
+      </c>
+      <c r="E79">
+        <v>0.14753532008811401</v>
+      </c>
+      <c r="F79">
+        <v>0.26380610355553402</v>
+      </c>
+      <c r="I79">
+        <v>0.32669637078824798</v>
+      </c>
+      <c r="J79">
+        <v>0.32176679952148202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="B80">
+        <v>0.32073210712184202</v>
+      </c>
+      <c r="C80">
+        <v>0.243427485</v>
+      </c>
+      <c r="E80">
+        <v>0.14252356616730699</v>
+      </c>
+      <c r="F80">
+        <v>0.162717472185857</v>
+      </c>
+      <c r="I80">
+        <v>0.33461880643215203</v>
+      </c>
+      <c r="J80">
+        <v>0.33278777599796999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B81">
+        <v>0.31362180076790702</v>
+      </c>
+      <c r="C81">
+        <v>0.24791012800000001</v>
+      </c>
+      <c r="E81">
+        <v>0.148286840371915</v>
+      </c>
+      <c r="F81">
+        <v>0.20912134936073401</v>
+      </c>
+      <c r="I81">
+        <v>0.333958070811196</v>
+      </c>
+      <c r="J81">
+        <v>0.33687488479174998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B82">
+        <v>0.29558235879631101</v>
+      </c>
+      <c r="C82">
+        <v>0.25329700199999999</v>
+      </c>
+      <c r="E82">
+        <v>0.139959078930462</v>
+      </c>
+      <c r="F82">
+        <v>0.127353949243599</v>
+      </c>
+      <c r="I82">
+        <v>0.34084287465347402</v>
+      </c>
+      <c r="J82">
+        <v>0.33911924600135201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="B83">
+        <v>0.30727864357789503</v>
+      </c>
+      <c r="C83">
+        <v>0.25807266200000001</v>
+      </c>
+      <c r="E83">
+        <v>0.16073575734234399</v>
+      </c>
+      <c r="F83">
+        <v>0.21893515350916201</v>
+      </c>
+      <c r="I83">
+        <v>0.34652836348279498</v>
+      </c>
+      <c r="J83">
+        <v>0.353006225568397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="B84">
+        <v>0.29655865528436798</v>
+      </c>
+      <c r="C84">
+        <v>0.258245538</v>
+      </c>
+      <c r="E84">
+        <v>0.131802973513448</v>
+      </c>
+      <c r="F84">
+        <v>0.208436932999989</v>
+      </c>
+      <c r="I84">
+        <v>0.35309179184276801</v>
+      </c>
+      <c r="J84">
+        <v>0.35538353340665801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="B85">
+        <v>0.27373182191533502</v>
+      </c>
+      <c r="C85">
+        <v>0.26315858800000003</v>
+      </c>
+      <c r="E85">
+        <v>0.17374657196924201</v>
+      </c>
+      <c r="F85">
+        <v>0.268661976229219</v>
+      </c>
+      <c r="I85">
+        <v>0.359748012762934</v>
+      </c>
+      <c r="J85">
+        <v>0.36495715779664301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B86">
+        <v>0.26855065545004397</v>
+      </c>
+      <c r="C86">
+        <v>0.267588241</v>
+      </c>
+      <c r="E86">
+        <v>0.15511405145478999</v>
+      </c>
+      <c r="F86">
+        <v>0.160273234418604</v>
+      </c>
+      <c r="I86">
+        <v>0.36697209967413502</v>
+      </c>
+      <c r="J86">
+        <v>0.36902017379558799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="B87">
+        <v>0.26395618140139998</v>
+      </c>
+      <c r="C87">
+        <v>0.26752849699999998</v>
+      </c>
+      <c r="E87">
+        <v>0.13156123597989999</v>
+      </c>
+      <c r="F87">
+        <v>0.131759456565746</v>
+      </c>
+      <c r="I87">
+        <v>0.37297185204197703</v>
+      </c>
+      <c r="J87">
+        <v>0.37877567282930102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B88">
+        <v>0.220241073342275</v>
+      </c>
+      <c r="C88">
+        <v>0.28092859100000001</v>
+      </c>
+      <c r="E88">
+        <v>0.15074632667426799</v>
+      </c>
+      <c r="F88">
+        <v>0.189680530169546</v>
+      </c>
+      <c r="I88">
+        <v>0.38103431990880199</v>
+      </c>
+      <c r="J88">
+        <v>0.37897323092602597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="B89">
+        <v>0.23272005211577099</v>
+      </c>
+      <c r="C89">
+        <v>0.27879070099999997</v>
+      </c>
+      <c r="E89">
+        <v>0.154992230028521</v>
+      </c>
+      <c r="F89">
+        <v>0.18907293454264801</v>
+      </c>
+      <c r="I89">
+        <v>0.38720286210369098</v>
+      </c>
+      <c r="J89">
+        <v>0.39328324491076699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B90">
+        <v>0.210522112932371</v>
+      </c>
+      <c r="C90">
+        <v>0.27596536500000002</v>
+      </c>
+      <c r="E90">
+        <v>0.15250873230683001</v>
+      </c>
+      <c r="F90">
+        <v>0.173770421733946</v>
+      </c>
+      <c r="I90">
+        <v>0.39507581020586802</v>
+      </c>
+      <c r="J90">
+        <v>0.399992774011936</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B91">
+        <v>0.2039709383735</v>
+      </c>
+      <c r="C91">
+        <v>0.29264016599999998</v>
+      </c>
+      <c r="E91">
+        <v>0.14361019877800699</v>
+      </c>
+      <c r="F91">
+        <v>0.16100453071373899</v>
+      </c>
+      <c r="I91">
+        <v>0.40306943947537999</v>
+      </c>
+      <c r="J91">
+        <v>0.40685168212085898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B92">
+        <v>0.19585234042229799</v>
+      </c>
+      <c r="C92">
+        <v>0.291810758</v>
+      </c>
+      <c r="E92">
+        <v>0.132798747424209</v>
+      </c>
+      <c r="F92">
+        <v>0.24023559466018701</v>
+      </c>
+      <c r="I92">
+        <v>0.41063245249575497</v>
+      </c>
+      <c r="J92">
+        <v>0.41468673470899797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="B93">
+        <v>0.202311404246177</v>
+      </c>
+      <c r="C93">
+        <v>0.31753731000000002</v>
+      </c>
+      <c r="E93">
+        <v>0.13491366761151899</v>
+      </c>
+      <c r="F93">
+        <v>0.157469267630892</v>
+      </c>
+      <c r="I93">
+        <v>0.41859731631279701</v>
+      </c>
+      <c r="J93">
+        <v>0.42544772470249498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="B94">
+        <v>0.18434376870480601</v>
+      </c>
+      <c r="C94">
+        <v>0.31834126600000001</v>
+      </c>
+      <c r="E94">
+        <v>0.14752145592367599</v>
+      </c>
+      <c r="F94">
+        <v>0.19553374562220799</v>
+      </c>
+      <c r="I94">
+        <v>0.42749252150130201</v>
+      </c>
+      <c r="J94">
+        <v>0.43390545240852901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="B95">
+        <v>0.184823334288924</v>
+      </c>
+      <c r="C95">
+        <v>0.32991347599999998</v>
+      </c>
+      <c r="E95">
+        <v>0.147143339448396</v>
+      </c>
+      <c r="F95">
+        <v>0.18775483455150599</v>
+      </c>
+      <c r="I95">
+        <v>0.43528459596989899</v>
+      </c>
+      <c r="J95">
+        <v>0.43947384814976098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B96">
+        <v>0.16349949306328601</v>
+      </c>
+      <c r="C96">
+        <v>0.33778249300000002</v>
+      </c>
+      <c r="E96">
+        <v>0.14122650486105001</v>
+      </c>
+      <c r="F96">
+        <v>0.16645781129214801</v>
+      </c>
+      <c r="I96">
+        <v>0.44361521365338302</v>
+      </c>
+      <c r="J96">
+        <v>0.44885508650987099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B97">
+        <v>0.16415664428402499</v>
+      </c>
+      <c r="C97">
+        <v>0.34217512900000002</v>
+      </c>
+      <c r="E97">
+        <v>0.148201123497856</v>
+      </c>
+      <c r="F97">
+        <v>0.17098940813070401</v>
+      </c>
+      <c r="I97">
+        <v>0.45184654511292399</v>
+      </c>
+      <c r="J97">
+        <v>0.45663130060763102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="B98">
+        <v>0.16622194601676199</v>
+      </c>
+      <c r="C98">
+        <v>0.35514468700000001</v>
+      </c>
+      <c r="E98">
+        <v>0.13483575814278301</v>
+      </c>
+      <c r="F98">
+        <v>0.15222913129589499</v>
+      </c>
+      <c r="I98">
+        <v>0.46170816974396001</v>
+      </c>
+      <c r="J98">
+        <v>0.46457562746179898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B99">
+        <v>0.14453373301663799</v>
+      </c>
+      <c r="C99">
+        <v>0.37602444699999998</v>
+      </c>
+      <c r="E99">
+        <v>0.14531779849273399</v>
+      </c>
+      <c r="F99">
+        <v>0.158610562464892</v>
+      </c>
+      <c r="I99">
+        <v>0.47054344307839002</v>
+      </c>
+      <c r="J99">
+        <v>0.47266901860458499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B100">
+        <v>0.13688968697071699</v>
+      </c>
+      <c r="C100">
+        <v>0.39547243999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.15430378737450801</v>
+      </c>
+      <c r="F100">
+        <v>0.20298755930485601</v>
+      </c>
+      <c r="I100">
+        <v>0.47893980691257898</v>
+      </c>
+      <c r="J100">
+        <v>0.48099085099681499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0.13689382446002399</v>
+      </c>
+      <c r="C101">
         <v>0.44830259700000002</v>
       </c>
-      <c r="B101" s="1">
-        <v>1</v>
+      <c r="E101">
+        <v>0.16077026335241701</v>
+      </c>
+      <c r="F101">
+        <v>0.16218925258007499</v>
+      </c>
+      <c r="I101">
+        <v>0.48899282026068802</v>
+      </c>
+      <c r="J101">
+        <v>0.489391074988487</v>
       </c>
     </row>
   </sheetData>
